--- a/results/mp/tinybert/corona/confidence/84/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,7 +46,7 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>emergency</t>
@@ -55,130 +55,121 @@
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>&amp;</t>
   </si>
   <si>
     <t>online</t>
@@ -187,31 +178,58 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>19</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>the</t>
@@ -220,7 +238,10 @@
     <t>to</t>
   </si>
   <si>
-    <t>co</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,16 +689,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8441558441558441</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -747,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7142857142857143</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5714285714285714</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.95</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5321888412017167</v>
+        <v>0.3158914728682171</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D7">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>109</v>
+        <v>353</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.92</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5172413793103449</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,37 +968,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.325</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,37 +1018,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2545454545454545</v>
+        <v>0.1434262948207171</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8823529411764706</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2441860465116279</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,119 +1086,71 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L11">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L12">
+        <v>33</v>
+      </c>
+      <c r="M12">
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>105</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.875</v>
-      </c>
-      <c r="L12">
-        <v>14</v>
-      </c>
-      <c r="M12">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.09139784946236559</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>169</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.84</v>
+        <v>0.84375</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,12 +1188,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0.8275862068965517</v>
@@ -1246,16 +1219,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8275862068965517</v>
+        <v>0.825</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1293,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8214285714285714</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1319,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.8205128205128205</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1345,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.8181818181818182</v>
+        <v>0.78125</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1371,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.8076923076923077</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1397,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1423,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7075718015665796</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1449,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.7652582159624414</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L24">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1475,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1501,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.7368421052631579</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1527,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.726027397260274</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1553,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1579,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.6956521739130435</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1605,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.6821705426356589</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1631,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.6805555555555556</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L31">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1657,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.5397489539748954</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1683,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.515625</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1709,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5945945945945946</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1735,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1761,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.5428571428571428</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1787,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3947368421052632</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1813,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.09090909090909091</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1839,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>180</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.06698564593301436</v>
+        <v>0.06398537477148081</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1865,47 +1838,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>195</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.05482456140350877</v>
+        <v>0.06275303643724696</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>431</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04929577464788732</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1917,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>405</v>
+        <v>840</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.04761904761904762</v>
+        <v>0.05980861244019139</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1943,47 +1916,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>300</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.04634146341463415</v>
+        <v>0.05542725173210162</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>391</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.04466501240694789</v>
+        <v>0.05112474437627812</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1995,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>385</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.03357314148681055</v>
+        <v>0.04916666666666666</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2021,163 +1994,397 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>806</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.03128371089536138</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>898</v>
+        <v>859</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.02325581395348837</v>
+        <v>0.03319308087891538</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="N47">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1092</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.01515943544171458</v>
+        <v>0.03032786885245902</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="N48">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1884</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.01359516616314199</v>
+        <v>0.03007217321571772</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="N49">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1959</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.01318807339449541</v>
+        <v>0.02765556253928347</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N50">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1721</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51">
+        <v>0.02699662542182227</v>
+      </c>
+      <c r="L51">
+        <v>72</v>
+      </c>
+      <c r="M51">
+        <v>78</v>
+      </c>
+      <c r="N51">
+        <v>0.92</v>
+      </c>
+      <c r="O51">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>0.02290322580645161</v>
+      </c>
+      <c r="L52">
+        <v>71</v>
+      </c>
+      <c r="M52">
+        <v>78</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K51">
-        <v>0.008974358974358974</v>
-      </c>
-      <c r="L51">
-        <v>14</v>
-      </c>
-      <c r="M51">
-        <v>18</v>
-      </c>
-      <c r="N51">
-        <v>0.78</v>
-      </c>
-      <c r="O51">
-        <v>0.22</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1546</v>
+      <c r="K53">
+        <v>0.02209131075110457</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>35</v>
+      </c>
+      <c r="N53">
+        <v>0.86</v>
+      </c>
+      <c r="O53">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54">
+        <v>0.02021772939346812</v>
+      </c>
+      <c r="L54">
+        <v>26</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54">
+        <v>0.9</v>
+      </c>
+      <c r="O54">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.01913043478260869</v>
+      </c>
+      <c r="L55">
+        <v>44</v>
+      </c>
+      <c r="M55">
+        <v>53</v>
+      </c>
+      <c r="N55">
+        <v>0.83</v>
+      </c>
+      <c r="O55">
+        <v>0.17</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56">
+        <v>0.01855287569573284</v>
+      </c>
+      <c r="L56">
+        <v>40</v>
+      </c>
+      <c r="M56">
+        <v>42</v>
+      </c>
+      <c r="N56">
+        <v>0.95</v>
+      </c>
+      <c r="O56">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.01841799146956185</v>
+      </c>
+      <c r="L57">
+        <v>95</v>
+      </c>
+      <c r="M57">
+        <v>102</v>
+      </c>
+      <c r="N57">
+        <v>0.93</v>
+      </c>
+      <c r="O57">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>0.01643518518518518</v>
+      </c>
+      <c r="L58">
+        <v>71</v>
+      </c>
+      <c r="M58">
+        <v>79</v>
+      </c>
+      <c r="N58">
+        <v>0.9</v>
+      </c>
+      <c r="O58">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59">
+        <v>0.01641414141414142</v>
+      </c>
+      <c r="L59">
+        <v>39</v>
+      </c>
+      <c r="M59">
+        <v>42</v>
+      </c>
+      <c r="N59">
+        <v>0.93</v>
+      </c>
+      <c r="O59">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60">
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>47</v>
+      </c>
+      <c r="N60">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O60">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>3154</v>
       </c>
     </row>
   </sheetData>
